--- a/biology/Biologie cellulaire et moléculaire/Gène_holandrique/Gène_holandrique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Gène_holandrique/Gène_holandrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A8ne_holandrique</t>
+          <t>Gène_holandrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un gène holandrique est un gène qui se trouve sur une partie propre au chromosome Y de façon permanente et qui, s'il se manifeste chez des mâles, est dit holandrique. On parlera d'hérédité holandrique. Ils ne sont donc pas présents sur le chromosome X.
 Très peu de gènes sont identifiés à l'heure actuelle.
